--- a/RaceSimulator/wc.xlsx
+++ b/RaceSimulator/wc.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="28680" windowHeight="14310" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="28680" windowHeight="14310" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="4" r:id="rId1"/>
+    <sheet name="Stats" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="T-WC1" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="T-WC2" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="WC1" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="T-WC3" sheetId="8" r:id="rId5"/>
-    <sheet name="WC2" sheetId="7" r:id="rId6"/>
+    <sheet name="RWC_Stats" sheetId="9" r:id="rId5"/>
+    <sheet name="T-RWC1" sheetId="8" r:id="rId6"/>
+    <sheet name="WC2" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="370">
   <si>
     <t>Group Stage</t>
   </si>
@@ -1057,15 +1058,88 @@
   </si>
   <si>
     <t>Black Sea</t>
+  </si>
+  <si>
+    <t>Southeastern Asia</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+  </si>
+  <si>
+    <t>Central Asia</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>West Africa</t>
+  </si>
+  <si>
+    <t>East Africa</t>
+  </si>
+  <si>
+    <t>Western Islands</t>
+  </si>
+  <si>
+    <t>Eastern Islands</t>
+  </si>
+  <si>
+    <t>AUS &amp; NZ</t>
+  </si>
+  <si>
+    <t>Polynesia</t>
+  </si>
+  <si>
+    <t>Medditerean ME</t>
+  </si>
+  <si>
+    <t>Eastern Arabia</t>
+  </si>
+  <si>
+    <t>Arabian Peninsula</t>
+  </si>
+  <si>
+    <t>Eurasian Bridge</t>
+  </si>
+  <si>
+    <t>Turtle Island</t>
+  </si>
+  <si>
+    <t>Northern Central A</t>
+  </si>
+  <si>
+    <t>Southern Central A</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Latin West</t>
+  </si>
+  <si>
+    <t>Latin North</t>
+  </si>
+  <si>
+    <t>Latin South</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0;\-0;\-;@"/>
     <numFmt numFmtId="165" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0;\-0;&quot;&quot;;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1215,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1280,12 +1354,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill>
@@ -1401,28 +1477,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1534,7 +1631,49 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1997,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A51" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7304,10 +7443,1109 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="26" customWidth="1"/>
+    <col min="4" max="10" width="11.875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="11" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="29">
+        <f t="shared" ref="K2:K46" si="0">D2+E2+F2+G2+H2+2*I2+3*J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3" s="28"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="28"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="28"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C10" s="28"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11" s="28"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="28"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C13" s="28"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C15" s="28"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16" s="28"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="28"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C19" s="28"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C20" s="28"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21" s="28"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C24" s="28"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25" s="28"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C26" s="28"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C27" s="26"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C28" s="28"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C29" s="28"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30" s="28"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="28"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C32" s="28"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C33" s="28"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C34" s="28"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C35" s="28"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="29"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="29"/>
+    </row>
+    <row r="51" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="32"/>
+      <c r="C51" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="34">
+        <f>SUMIF($C2:$C50,$C$51,D2:D50)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="31">
+        <f t="shared" ref="E51:J51" si="1">SUMIF($C2:$C50,$C51,E2:E50)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="29">
+        <f>E51+F51+G51+H51+2*I51+3*J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="32"/>
+      <c r="C52" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" s="34">
+        <f t="shared" ref="D52:J52" si="2">SUMIF($C3:$C50,$C52,D3:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="29">
+        <f t="shared" ref="K52:K58" si="3">E52+F52+G52+H52+2*I52+3*J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" s="32"/>
+      <c r="C53" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="34">
+        <f t="shared" ref="D53:J53" si="4">SUMIF($C4:$C50,$C53,D4:D52)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" s="32"/>
+      <c r="C54" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="34">
+        <f t="shared" ref="D54:J54" si="5">SUMIF($C5:$C50,$C54,D5:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="32"/>
+      <c r="C55" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="34">
+        <f t="shared" ref="D55:J55" si="6">SUMIF($C6:$C50,$C55,D6:D54)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="32"/>
+      <c r="C56" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="34">
+        <f t="shared" ref="D56:J56" si="7">SUMIF($C7:$C50,$C56,D7:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="32"/>
+      <c r="C57" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" s="34">
+        <f t="shared" ref="D57:J57" si="8">SUMIF($C8:$C50,$C57,D8:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="32"/>
+      <c r="C58" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="34">
+        <f t="shared" ref="D58:J58" si="9">SUMIF($C9:$C50,$C58,D9:D57)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" s="36">
+        <f>SUM(D51:D58)/32</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="36">
+        <f>SUM(E51:E58)/16</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="36">
+        <f>SUM(F51:F58)/8</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="36">
+        <f>SUM(G51:G58)/4</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="36">
+        <f t="shared" ref="H59:J59" si="10">SUM(H51:H58)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="36">
+        <f>SUM(K51:K58)/34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7332,7 +8570,7 @@
     <col min="24" max="24" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>338</v>
       </c>
@@ -7340,8 +8578,20 @@
       <c r="C1" s="11"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="11"/>
+    </row>
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -7349,8 +8599,20 @@
       <c r="C2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="11"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="11"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="11"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
@@ -7358,76 +8620,232 @@
       <c r="C3" s="11"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="11"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="11"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="11"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="11"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>339</v>
       </c>
       <c r="E5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" t="s">
+        <v>350</v>
+      </c>
+      <c r="N5" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>358</v>
+      </c>
+      <c r="T5" t="s">
+        <v>362</v>
+      </c>
+      <c r="W5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="11"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>340</v>
       </c>
       <c r="E11" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" t="s">
+        <v>351</v>
+      </c>
+      <c r="N11" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>359</v>
+      </c>
+      <c r="T11" t="s">
+        <v>363</v>
+      </c>
+      <c r="W11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="11"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="11"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="11"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -7435,6 +8853,24 @@
       </c>
       <c r="E17" t="s">
         <v>344</v>
+      </c>
+      <c r="H17" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" t="s">
+        <v>352</v>
+      </c>
+      <c r="N17" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>360</v>
+      </c>
+      <c r="T17" t="s">
+        <v>364</v>
+      </c>
+      <c r="W17" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
@@ -7442,24 +8878,72 @@
       <c r="C19" s="11"/>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="11"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="11"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="11"/>
     </row>
     <row r="20" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="11"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="11"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="11"/>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="11"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="11"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="11"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="11"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="11"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="11"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="11"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
@@ -7468,302 +8952,704 @@
       <c r="E23" t="s">
         <v>345</v>
       </c>
+      <c r="H23" t="s">
+        <v>349</v>
+      </c>
+      <c r="K23" t="s">
+        <v>353</v>
+      </c>
+      <c r="N23" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>361</v>
+      </c>
+      <c r="T23" t="s">
+        <v>365</v>
+      </c>
+      <c r="W23" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="25" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="40">
+        <f>B$1</f>
+        <v>0</v>
+      </c>
       <c r="C25" s="11"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="40">
+        <f>E$1</f>
+        <v>0</v>
+      </c>
       <c r="F25" s="11"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="40">
+        <f>H$1</f>
+        <v>0</v>
+      </c>
       <c r="I25" s="11"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="40">
+        <f>K$1</f>
+        <v>0</v>
+      </c>
       <c r="L25" s="11"/>
-      <c r="N25" s="10"/>
+      <c r="N25" s="40">
+        <f>N$1</f>
+        <v>0</v>
+      </c>
       <c r="O25" s="11"/>
-      <c r="Q25" s="10"/>
+      <c r="Q25" s="40">
+        <f>Q$1</f>
+        <v>0</v>
+      </c>
       <c r="R25" s="11"/>
-      <c r="T25" s="10"/>
+      <c r="T25" s="40">
+        <f>T$1</f>
+        <v>0</v>
+      </c>
       <c r="U25" s="11"/>
-      <c r="W25" s="10"/>
+      <c r="W25" s="40">
+        <f>W$1</f>
+        <v>0</v>
+      </c>
       <c r="X25" s="11"/>
     </row>
     <row r="26" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="40">
+        <f>B$2</f>
+        <v>0</v>
+      </c>
       <c r="C26" s="11"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="40">
+        <f>E$2</f>
+        <v>0</v>
+      </c>
       <c r="F26" s="11"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="40">
+        <f>H$2</f>
+        <v>0</v>
+      </c>
       <c r="I26" s="11"/>
-      <c r="K26" s="10"/>
+      <c r="K26" s="40">
+        <f>K$2</f>
+        <v>0</v>
+      </c>
       <c r="L26" s="11"/>
-      <c r="N26" s="10"/>
+      <c r="N26" s="40">
+        <f>N$2</f>
+        <v>0</v>
+      </c>
       <c r="O26" s="11"/>
-      <c r="Q26" s="10"/>
+      <c r="Q26" s="40">
+        <f>Q$2</f>
+        <v>0</v>
+      </c>
       <c r="R26" s="11"/>
-      <c r="T26" s="10"/>
+      <c r="T26" s="40">
+        <f>T$2</f>
+        <v>0</v>
+      </c>
       <c r="U26" s="11"/>
-      <c r="W26" s="10"/>
+      <c r="W26" s="40">
+        <f>W$2</f>
+        <v>0</v>
+      </c>
       <c r="X26" s="11"/>
     </row>
     <row r="27" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="40">
+        <f>B$3</f>
+        <v>0</v>
+      </c>
       <c r="C27" s="11"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="40">
+        <f>E$3</f>
+        <v>0</v>
+      </c>
       <c r="F27" s="11"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="40">
+        <f>H$3</f>
+        <v>0</v>
+      </c>
       <c r="I27" s="11"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="40">
+        <f>K$3</f>
+        <v>0</v>
+      </c>
       <c r="L27" s="11"/>
-      <c r="N27" s="10"/>
+      <c r="N27" s="40">
+        <f>N$3</f>
+        <v>0</v>
+      </c>
       <c r="O27" s="11"/>
-      <c r="Q27" s="10"/>
+      <c r="Q27" s="40">
+        <f>Q$3</f>
+        <v>0</v>
+      </c>
       <c r="R27" s="11"/>
-      <c r="T27" s="10"/>
+      <c r="T27" s="40">
+        <f>T$3</f>
+        <v>0</v>
+      </c>
       <c r="U27" s="11"/>
-      <c r="W27" s="10"/>
+      <c r="W27" s="40">
+        <f>W$3</f>
+        <v>0</v>
+      </c>
       <c r="X27" s="11"/>
     </row>
     <row r="28" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
+      <c r="B28" s="40">
+        <f>B$4</f>
+        <v>0</v>
+      </c>
       <c r="C28" s="11"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="40">
+        <f>E$4</f>
+        <v>0</v>
+      </c>
       <c r="F28" s="11"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="40">
+        <f>H$4</f>
+        <v>0</v>
+      </c>
       <c r="I28" s="11"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="40">
+        <f>K$4</f>
+        <v>0</v>
+      </c>
       <c r="L28" s="11"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="40">
+        <f>N$4</f>
+        <v>0</v>
+      </c>
       <c r="O28" s="11"/>
-      <c r="Q28" s="10"/>
+      <c r="Q28" s="40">
+        <f>Q$4</f>
+        <v>0</v>
+      </c>
       <c r="R28" s="11"/>
-      <c r="T28" s="10"/>
+      <c r="T28" s="40">
+        <f>T$4</f>
+        <v>0</v>
+      </c>
       <c r="U28" s="11"/>
-      <c r="W28" s="10"/>
+      <c r="W28" s="40">
+        <f>W$4</f>
+        <v>0</v>
+      </c>
       <c r="X28" s="11"/>
     </row>
     <row r="29" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+      <c r="B29" s="41">
+        <f>B$7</f>
+        <v>0</v>
+      </c>
       <c r="C29" s="13"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="41">
+        <f>E$7</f>
+        <v>0</v>
+      </c>
       <c r="F29" s="13"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="41">
+        <f>H$7</f>
+        <v>0</v>
+      </c>
       <c r="I29" s="13"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="41">
+        <f>K$7</f>
+        <v>0</v>
+      </c>
       <c r="L29" s="13"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="41">
+        <f>N$7</f>
+        <v>0</v>
+      </c>
       <c r="O29" s="13"/>
-      <c r="Q29" s="12"/>
+      <c r="Q29" s="41">
+        <f>Q$7</f>
+        <v>0</v>
+      </c>
       <c r="R29" s="13"/>
-      <c r="T29" s="12"/>
+      <c r="T29" s="41">
+        <f>T$7</f>
+        <v>0</v>
+      </c>
       <c r="U29" s="13"/>
-      <c r="W29" s="12"/>
+      <c r="W29" s="41">
+        <f>W$7</f>
+        <v>0</v>
+      </c>
       <c r="X29" s="13"/>
     </row>
     <row r="30" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
+      <c r="B30" s="41">
+        <f>B$8</f>
+        <v>0</v>
+      </c>
       <c r="C30" s="13"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="41">
+        <f>E$8</f>
+        <v>0</v>
+      </c>
       <c r="F30" s="13"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="41">
+        <f>H$8</f>
+        <v>0</v>
+      </c>
       <c r="I30" s="13"/>
-      <c r="K30" s="12"/>
+      <c r="K30" s="41">
+        <f>K$8</f>
+        <v>0</v>
+      </c>
       <c r="L30" s="13"/>
-      <c r="N30" s="12"/>
+      <c r="N30" s="41">
+        <f>N$8</f>
+        <v>0</v>
+      </c>
       <c r="O30" s="13"/>
-      <c r="Q30" s="12"/>
+      <c r="Q30" s="41">
+        <f>Q$8</f>
+        <v>0</v>
+      </c>
       <c r="R30" s="13"/>
-      <c r="T30" s="12"/>
+      <c r="T30" s="41">
+        <f>T$8</f>
+        <v>0</v>
+      </c>
       <c r="U30" s="13"/>
-      <c r="W30" s="12"/>
+      <c r="W30" s="41">
+        <f>W$8</f>
+        <v>0</v>
+      </c>
       <c r="X30" s="13"/>
     </row>
     <row r="31" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
+      <c r="B31" s="41">
+        <f>B$9</f>
+        <v>0</v>
+      </c>
       <c r="C31" s="13"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="41">
+        <f>E$9</f>
+        <v>0</v>
+      </c>
       <c r="F31" s="13"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="41">
+        <f>H$9</f>
+        <v>0</v>
+      </c>
       <c r="I31" s="13"/>
-      <c r="K31" s="12"/>
+      <c r="K31" s="41">
+        <f>K$9</f>
+        <v>0</v>
+      </c>
       <c r="L31" s="13"/>
-      <c r="N31" s="12"/>
+      <c r="N31" s="41">
+        <f>N$9</f>
+        <v>0</v>
+      </c>
       <c r="O31" s="13"/>
-      <c r="Q31" s="12"/>
+      <c r="Q31" s="41">
+        <f>Q$9</f>
+        <v>0</v>
+      </c>
       <c r="R31" s="13"/>
-      <c r="T31" s="12"/>
+      <c r="T31" s="41">
+        <f>T$9</f>
+        <v>0</v>
+      </c>
       <c r="U31" s="13"/>
-      <c r="W31" s="12"/>
+      <c r="W31" s="41">
+        <f>W$9</f>
+        <v>0</v>
+      </c>
       <c r="X31" s="13"/>
     </row>
     <row r="32" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+      <c r="B32" s="41">
+        <f>B$10</f>
+        <v>0</v>
+      </c>
       <c r="C32" s="13"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="41">
+        <f>E$10</f>
+        <v>0</v>
+      </c>
       <c r="F32" s="13"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="41">
+        <f>H$10</f>
+        <v>0</v>
+      </c>
       <c r="I32" s="13"/>
-      <c r="K32" s="12"/>
+      <c r="K32" s="41">
+        <f>K$10</f>
+        <v>0</v>
+      </c>
       <c r="L32" s="13"/>
-      <c r="N32" s="12"/>
+      <c r="N32" s="41">
+        <f>N$10</f>
+        <v>0</v>
+      </c>
       <c r="O32" s="13"/>
-      <c r="Q32" s="12"/>
+      <c r="Q32" s="41">
+        <f>Q$10</f>
+        <v>0</v>
+      </c>
       <c r="R32" s="13"/>
-      <c r="T32" s="12"/>
+      <c r="T32" s="41">
+        <f>T$10</f>
+        <v>0</v>
+      </c>
       <c r="U32" s="13"/>
-      <c r="W32" s="12"/>
+      <c r="W32" s="41">
+        <f>W$10</f>
+        <v>0</v>
+      </c>
       <c r="X32" s="13"/>
     </row>
     <row r="33" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
+      <c r="B33" s="41">
+        <f>B$13</f>
+        <v>0</v>
+      </c>
       <c r="C33" s="13"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="41">
+        <f>E$13</f>
+        <v>0</v>
+      </c>
       <c r="F33" s="13"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="41">
+        <f>H$13</f>
+        <v>0</v>
+      </c>
       <c r="I33" s="13"/>
-      <c r="K33" s="12"/>
+      <c r="K33" s="41">
+        <f>K$13</f>
+        <v>0</v>
+      </c>
       <c r="L33" s="13"/>
-      <c r="N33" s="12"/>
+      <c r="N33" s="41">
+        <f>N$13</f>
+        <v>0</v>
+      </c>
       <c r="O33" s="13"/>
-      <c r="Q33" s="12"/>
+      <c r="Q33" s="41">
+        <f>Q$13</f>
+        <v>0</v>
+      </c>
       <c r="R33" s="13"/>
-      <c r="T33" s="12"/>
+      <c r="T33" s="41">
+        <f>T$13</f>
+        <v>0</v>
+      </c>
       <c r="U33" s="13"/>
-      <c r="W33" s="12"/>
+      <c r="W33" s="41">
+        <f>W$13</f>
+        <v>0</v>
+      </c>
       <c r="X33" s="13"/>
     </row>
     <row r="34" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
+      <c r="B34" s="41">
+        <f>B$14</f>
+        <v>0</v>
+      </c>
       <c r="C34" s="13"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="41">
+        <f>E$14</f>
+        <v>0</v>
+      </c>
       <c r="F34" s="13"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="41">
+        <f>H$14</f>
+        <v>0</v>
+      </c>
       <c r="I34" s="13"/>
-      <c r="K34" s="12"/>
+      <c r="K34" s="41">
+        <f>K$14</f>
+        <v>0</v>
+      </c>
       <c r="L34" s="13"/>
-      <c r="N34" s="12"/>
+      <c r="N34" s="41">
+        <f>N$14</f>
+        <v>0</v>
+      </c>
       <c r="O34" s="13"/>
-      <c r="Q34" s="12"/>
+      <c r="Q34" s="41">
+        <f>Q$14</f>
+        <v>0</v>
+      </c>
       <c r="R34" s="13"/>
-      <c r="T34" s="12"/>
+      <c r="T34" s="41">
+        <f>T$14</f>
+        <v>0</v>
+      </c>
       <c r="U34" s="13"/>
-      <c r="W34" s="12"/>
+      <c r="W34" s="41">
+        <f>W$14</f>
+        <v>0</v>
+      </c>
       <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
+      <c r="B35" s="41">
+        <f>B$15</f>
+        <v>0</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="41">
+        <f>E$15</f>
+        <v>0</v>
+      </c>
       <c r="F35" s="13"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="41">
+        <f>H$15</f>
+        <v>0</v>
+      </c>
       <c r="I35" s="13"/>
-      <c r="K35" s="12"/>
+      <c r="K35" s="41">
+        <f>K$15</f>
+        <v>0</v>
+      </c>
       <c r="L35" s="13"/>
-      <c r="N35" s="12"/>
+      <c r="N35" s="41">
+        <f>N$15</f>
+        <v>0</v>
+      </c>
       <c r="O35" s="13"/>
-      <c r="Q35" s="12"/>
+      <c r="Q35" s="41">
+        <f>Q$15</f>
+        <v>0</v>
+      </c>
       <c r="R35" s="13"/>
-      <c r="T35" s="12"/>
+      <c r="T35" s="41">
+        <f>T$15</f>
+        <v>0</v>
+      </c>
       <c r="U35" s="13"/>
-      <c r="W35" s="12"/>
+      <c r="W35" s="41">
+        <f>W$15</f>
+        <v>0</v>
+      </c>
       <c r="X35" s="13"/>
     </row>
     <row r="36" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+      <c r="B36" s="41">
+        <f>B$16</f>
+        <v>0</v>
+      </c>
       <c r="C36" s="13"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="41">
+        <f>E$16</f>
+        <v>0</v>
+      </c>
       <c r="F36" s="13"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="41">
+        <f>H$16</f>
+        <v>0</v>
+      </c>
       <c r="I36" s="13"/>
-      <c r="K36" s="12"/>
+      <c r="K36" s="41">
+        <f>K$16</f>
+        <v>0</v>
+      </c>
       <c r="L36" s="13"/>
-      <c r="N36" s="12"/>
+      <c r="N36" s="41">
+        <f>N$16</f>
+        <v>0</v>
+      </c>
       <c r="O36" s="13"/>
-      <c r="Q36" s="12"/>
+      <c r="Q36" s="41">
+        <f>Q$16</f>
+        <v>0</v>
+      </c>
       <c r="R36" s="13"/>
-      <c r="T36" s="12"/>
+      <c r="T36" s="41">
+        <f>T$16</f>
+        <v>0</v>
+      </c>
       <c r="U36" s="13"/>
-      <c r="W36" s="12"/>
+      <c r="W36" s="41">
+        <f>W$16</f>
+        <v>0</v>
+      </c>
       <c r="X36" s="13"/>
     </row>
     <row r="37" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+      <c r="B37" s="41">
+        <f>B$19</f>
+        <v>0</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="41">
+        <f>E$19</f>
+        <v>0</v>
+      </c>
       <c r="F37" s="13"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="41">
+        <f>H$19</f>
+        <v>0</v>
+      </c>
       <c r="I37" s="13"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="41">
+        <f>K$19</f>
+        <v>0</v>
+      </c>
       <c r="L37" s="13"/>
-      <c r="N37" s="12"/>
+      <c r="N37" s="41">
+        <f>N$19</f>
+        <v>0</v>
+      </c>
       <c r="O37" s="13"/>
-      <c r="Q37" s="12"/>
+      <c r="Q37" s="41">
+        <f>Q$19</f>
+        <v>0</v>
+      </c>
       <c r="R37" s="13"/>
-      <c r="T37" s="12"/>
+      <c r="T37" s="41">
+        <f>T$19</f>
+        <v>0</v>
+      </c>
       <c r="U37" s="13"/>
-      <c r="W37" s="12"/>
+      <c r="W37" s="41">
+        <f>W$19</f>
+        <v>0</v>
+      </c>
       <c r="X37" s="13"/>
     </row>
     <row r="38" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+      <c r="B38" s="41">
+        <f>B$20</f>
+        <v>0</v>
+      </c>
       <c r="C38" s="13"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="41">
+        <f>E$20</f>
+        <v>0</v>
+      </c>
       <c r="F38" s="13"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="41">
+        <f>H$20</f>
+        <v>0</v>
+      </c>
       <c r="I38" s="13"/>
-      <c r="K38" s="12"/>
+      <c r="K38" s="41">
+        <f>K$20</f>
+        <v>0</v>
+      </c>
       <c r="L38" s="13"/>
-      <c r="N38" s="12"/>
+      <c r="N38" s="41">
+        <f>N$20</f>
+        <v>0</v>
+      </c>
       <c r="O38" s="13"/>
-      <c r="Q38" s="12"/>
+      <c r="Q38" s="41">
+        <f>Q$20</f>
+        <v>0</v>
+      </c>
       <c r="R38" s="13"/>
-      <c r="T38" s="12"/>
+      <c r="T38" s="41">
+        <f>T$20</f>
+        <v>0</v>
+      </c>
       <c r="U38" s="13"/>
-      <c r="W38" s="12"/>
+      <c r="W38" s="41">
+        <f>W$20</f>
+        <v>0</v>
+      </c>
       <c r="X38" s="13"/>
     </row>
     <row r="39" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+      <c r="B39" s="41">
+        <f>B$21</f>
+        <v>0</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="41">
+        <f>E$21</f>
+        <v>0</v>
+      </c>
       <c r="F39" s="13"/>
-      <c r="H39" s="12"/>
+      <c r="H39" s="41">
+        <f>H$21</f>
+        <v>0</v>
+      </c>
       <c r="I39" s="13"/>
-      <c r="K39" s="12"/>
+      <c r="K39" s="41">
+        <f>K$21</f>
+        <v>0</v>
+      </c>
       <c r="L39" s="13"/>
-      <c r="N39" s="12"/>
+      <c r="N39" s="41">
+        <f>N$21</f>
+        <v>0</v>
+      </c>
       <c r="O39" s="13"/>
-      <c r="Q39" s="12"/>
+      <c r="Q39" s="41">
+        <f>Q$21</f>
+        <v>0</v>
+      </c>
       <c r="R39" s="13"/>
-      <c r="T39" s="12"/>
+      <c r="T39" s="41">
+        <f>T$21</f>
+        <v>0</v>
+      </c>
       <c r="U39" s="13"/>
-      <c r="W39" s="12"/>
+      <c r="W39" s="41">
+        <f>W$21</f>
+        <v>0</v>
+      </c>
       <c r="X39" s="13"/>
     </row>
     <row r="40" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
+      <c r="B40" s="41">
+        <f>B$22</f>
+        <v>0</v>
+      </c>
       <c r="C40" s="13"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="41">
+        <f>E$22</f>
+        <v>0</v>
+      </c>
       <c r="F40" s="13"/>
-      <c r="H40" s="12"/>
+      <c r="H40" s="41">
+        <f>H$22</f>
+        <v>0</v>
+      </c>
       <c r="I40" s="13"/>
-      <c r="K40" s="12"/>
+      <c r="K40" s="41">
+        <f>K$22</f>
+        <v>0</v>
+      </c>
       <c r="L40" s="13"/>
-      <c r="N40" s="12"/>
+      <c r="N40" s="41">
+        <f>N$22</f>
+        <v>0</v>
+      </c>
       <c r="O40" s="13"/>
-      <c r="Q40" s="12"/>
+      <c r="Q40" s="41">
+        <f>Q$22</f>
+        <v>0</v>
+      </c>
       <c r="R40" s="13"/>
-      <c r="T40" s="12"/>
+      <c r="T40" s="41">
+        <f>T$22</f>
+        <v>0</v>
+      </c>
       <c r="U40" s="13"/>
-      <c r="W40" s="12"/>
+      <c r="W40" s="41">
+        <f>W$22</f>
+        <v>0</v>
+      </c>
       <c r="X40" s="13"/>
     </row>
     <row r="41" spans="1:24" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -7823,25 +9709,25 @@
         <v>0</v>
       </c>
       <c r="B44" s="6" t="str">
-        <f>IF($B$25&lt;&gt;"",$B$25,"EUW1")</f>
+        <f>IF($A$28="x",$B$25,"EUW1")</f>
         <v>EUW1</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
       <c r="E44" s="6" t="str">
-        <f>IF($E$25&lt;&gt;"",$E$25,"EUE1")</f>
+        <f>IF($A$28="x",$E$25,"EUE1")</f>
         <v>EUE1</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1"/>
       <c r="H44" s="6" t="str">
-        <f>IF($H$25&lt;&gt;"",$H$25,"AS1")</f>
+        <f>IF($A$28="x",$H$25,"AS1")</f>
         <v>AS1</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="1"/>
       <c r="K44" s="6" t="str">
-        <f>IF($K$25&lt;&gt;"",$K$25,"AF1")</f>
+        <f>IF($A$28="x",$K$25,"AF1")</f>
         <v>AF1</v>
       </c>
       <c r="L44" s="2"/>
@@ -7863,25 +9749,25 @@
         <v>1</v>
       </c>
       <c r="B45" s="6" t="str">
-        <f>IF($N$25&lt;&gt;"",$N$25,"OCE1")</f>
+        <f>IF($A$28="x",$N$25,"OCE1")</f>
         <v>OCE1</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
       <c r="E45" s="6" t="str">
-        <f>IF($Q$25&lt;&gt;"",$Q$25,"ME1")</f>
+        <f>IF($A$28="x",$Q$25,"ME1")</f>
         <v>ME1</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1"/>
       <c r="H45" s="6" t="str">
-        <f>IF($T$25&lt;&gt;"",$T$25,"NA1")</f>
+        <f>IF($A$28="x",$T$25,"NA1")</f>
         <v>NA1</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="1"/>
       <c r="K45" s="6" t="str">
-        <f>IF($W$25&lt;&gt;"",$W$25,"SA1")</f>
+        <f>IF($A$28="x",$W$25,"SA1")</f>
         <v>SA1</v>
       </c>
       <c r="L45" s="2"/>
@@ -7903,25 +9789,25 @@
         <v>2</v>
       </c>
       <c r="B46" s="6" t="str">
-        <f>IF($K$26&lt;&gt;"",$K$26,"AF2")</f>
+        <f>IF($A$28="x",$K$26,"AF2")</f>
         <v>AF2</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
       <c r="E46" s="6" t="str">
-        <f>IF($B$26&lt;&gt;"",$B$26,"EUW2")</f>
+        <f>IF($A$28="x",$B$26,"EUW2")</f>
         <v>EUW2</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
       <c r="H46" s="6" t="str">
-        <f>IF($E$26&lt;&gt;"",$E$26,"EUE2")</f>
+        <f>IF($A$28="x",$E$26,"EUE2")</f>
         <v>EUE2</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="1"/>
       <c r="K46" s="6" t="str">
-        <f>IF($H$26&lt;&gt;"",$H$26,"AS2")</f>
+        <f>IF($A$28="x",$H$26,"AS2")</f>
         <v>AS2</v>
       </c>
       <c r="L46" s="2"/>
@@ -7941,25 +9827,25 @@
     <row r="47" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="6" t="str">
-        <f>IF($W$26&lt;&gt;"",$W$26,"SA2")</f>
+        <f>IF($A$28="x",$W$26,"SA2")</f>
         <v>SA2</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
       <c r="E47" s="6" t="str">
-        <f>IF($N$26&lt;&gt;"",$N$26,"OCE2")</f>
+        <f>IF($A$28="x",$N$26,"OCE2")</f>
         <v>OCE2</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
       <c r="H47" s="6" t="str">
-        <f>IF($Q$26&lt;&gt;"",$Q$26,"ME2")</f>
+        <f>IF($A$28="x",$Q$26,"ME2")</f>
         <v>ME2</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="1"/>
       <c r="K47" s="6" t="str">
-        <f>IF($T$26&lt;&gt;"",$T$26,"NA2")</f>
+        <f>IF($A$28="x",$T$26,"NA2")</f>
         <v>NA2</v>
       </c>
       <c r="L47" s="2"/>
@@ -7979,25 +9865,25 @@
     <row r="48" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="7" t="str">
-        <f>IF($H$27&lt;&gt;"",$H$27,"AS3")</f>
+        <f>IF($A$28="x",$H$27,"AS3")</f>
         <v>AS3</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="1"/>
       <c r="E48" s="7" t="str">
-        <f>IF($K$27&lt;&gt;"",$K$27,"AF3")</f>
+        <f>IF($A$28="x",$K$27,"AF3")</f>
         <v>AF3</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="1"/>
       <c r="H48" s="7" t="str">
-        <f>IF($B$27&lt;&gt;"",$B$27,"EUW3")</f>
+        <f>IF($A$28="x",$B$27,"EUW3")</f>
         <v>EUW3</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="1"/>
       <c r="K48" s="7" t="str">
-        <f>IF($E$27&lt;&gt;"",$E$27,"EUE3")</f>
+        <f>IF($A$28="x",$E$27,"EUE3")</f>
         <v>EUE3</v>
       </c>
       <c r="L48" s="3"/>
@@ -8009,25 +9895,25 @@
     <row r="49" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="str">
-        <f>IF($T$27&lt;&gt;"",$T$27,"NA3")</f>
+        <f>IF($A$28="x",$T$27,"NA3")</f>
         <v>NA3</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="1"/>
       <c r="E49" s="7" t="str">
-        <f>IF($W$27&lt;&gt;"",$W$27,"SA3")</f>
+        <f>IF($A$28="x",$W$27,"SA3")</f>
         <v>SA3</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="1"/>
       <c r="H49" s="7" t="str">
-        <f>IF($N$27&lt;&gt;"",$N$27,"OCE3")</f>
+        <f>IF($A$28="x",$N$27,"OCE3")</f>
         <v>OCE3</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="1"/>
       <c r="K49" s="7" t="str">
-        <f>IF($Q$27&lt;&gt;"",$Q$27,"ME3")</f>
+        <f>IF($A$28="x",$Q$27,"ME3")</f>
         <v>ME3</v>
       </c>
       <c r="L49" s="3"/>
@@ -8039,25 +9925,25 @@
     <row r="50" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="7" t="str">
-        <f>IF($E$28&lt;&gt;"",$E$28,"EUE4")</f>
+        <f>IF($A$28="x",$E$28,"EUE4")</f>
         <v>EUE4</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="1"/>
       <c r="E50" s="7" t="str">
-        <f>IF($H$28&lt;&gt;"",$H$28,"AS4")</f>
+        <f>IF($A$28="x",$H$28,"AS4")</f>
         <v>AS4</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="1"/>
       <c r="H50" s="7" t="str">
-        <f>IF($K$28&lt;&gt;"",$K$28,"AF4")</f>
+        <f>IF($A$28="x",$K$28,"AF4")</f>
         <v>AF4</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="1"/>
       <c r="K50" s="7" t="str">
-        <f>IF($B$28&lt;&gt;"",$B$28,"EUW4")</f>
+        <f>IF($A$28="x",$B$28,"EUW4")</f>
         <v>EUW4</v>
       </c>
       <c r="L50" s="3"/>
@@ -8069,25 +9955,25 @@
     <row r="51" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="7" t="str">
-        <f>IF($Q$28&lt;&gt;"",$Q$28,"ME4")</f>
+        <f>IF($A$28="x",$Q$28,"ME4")</f>
         <v>ME4</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="1"/>
       <c r="E51" s="7" t="str">
-        <f>IF($T$28&lt;&gt;"",$T$28,"NA4")</f>
+        <f>IF($A$28="x",$T$28,"NA4")</f>
         <v>NA4</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="1"/>
       <c r="H51" s="7" t="str">
-        <f>IF($W$28&lt;&gt;"",$W$28,"SA4")</f>
+        <f>IF($A$28="x",$W$28,"SA4")</f>
         <v>SA4</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="1"/>
       <c r="K51" s="7" t="str">
-        <f>IF($N$28&lt;&gt;"",$N$28,"OCE4")</f>
+        <f>IF($A$28="x",$N$28,"OCE4")</f>
         <v>OCE4</v>
       </c>
       <c r="L51" s="3"/>
@@ -8630,147 +10516,337 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B25:C28">
-    <cfRule type="expression" dxfId="36" priority="29">
+    <cfRule type="expression" dxfId="66" priority="69">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:C40">
-    <cfRule type="expression" dxfId="35" priority="28">
+    <cfRule type="expression" dxfId="65" priority="68">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:F28">
-    <cfRule type="expression" dxfId="34" priority="27">
+  <conditionalFormatting sqref="F25:F28">
+    <cfRule type="expression" dxfId="64" priority="67">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F40">
-    <cfRule type="expression" dxfId="33" priority="26">
+  <conditionalFormatting sqref="F29:F40">
+    <cfRule type="expression" dxfId="63" priority="66">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:I28">
-    <cfRule type="expression" dxfId="32" priority="25">
+  <conditionalFormatting sqref="I25:I28">
+    <cfRule type="expression" dxfId="62" priority="65">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:I40">
-    <cfRule type="expression" dxfId="31" priority="24">
+  <conditionalFormatting sqref="I29:I40">
+    <cfRule type="expression" dxfId="61" priority="64">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L28">
-    <cfRule type="expression" dxfId="30" priority="23">
+  <conditionalFormatting sqref="L25:L28">
+    <cfRule type="expression" dxfId="60" priority="63">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:L40">
-    <cfRule type="expression" dxfId="29" priority="22">
+  <conditionalFormatting sqref="L29:L40">
+    <cfRule type="expression" dxfId="59" priority="62">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25:O28">
-    <cfRule type="expression" dxfId="28" priority="21">
+  <conditionalFormatting sqref="O25:O28">
+    <cfRule type="expression" dxfId="58" priority="61">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29:O40">
-    <cfRule type="expression" dxfId="27" priority="20">
+  <conditionalFormatting sqref="O29:O40">
+    <cfRule type="expression" dxfId="57" priority="60">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:R28">
-    <cfRule type="expression" dxfId="26" priority="19">
+  <conditionalFormatting sqref="R25:R28">
+    <cfRule type="expression" dxfId="56" priority="59">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29:R40">
-    <cfRule type="expression" dxfId="25" priority="18">
+  <conditionalFormatting sqref="R29:R40">
+    <cfRule type="expression" dxfId="55" priority="58">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T25:U28">
-    <cfRule type="expression" dxfId="24" priority="17">
+  <conditionalFormatting sqref="U25:U28">
+    <cfRule type="expression" dxfId="54" priority="57">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29:U40">
-    <cfRule type="expression" dxfId="23" priority="16">
+  <conditionalFormatting sqref="U29:U40">
+    <cfRule type="expression" dxfId="53" priority="56">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25:X28">
-    <cfRule type="expression" dxfId="22" priority="15">
+  <conditionalFormatting sqref="X25:X28">
+    <cfRule type="expression" dxfId="52" priority="55">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29:X40">
-    <cfRule type="expression" dxfId="21" priority="14">
+  <conditionalFormatting sqref="X29:X40">
+    <cfRule type="expression" dxfId="51" priority="54">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C47 E44:F47 H44:I47 K44:L47 K54:L55 H54:I55 H60:I61 E60:F61 E54:F55 B54:C55">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="50" priority="53">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:C51 E48:F51 H48:I51 K48:L51 B56:C57 E56:F57 H56:I57 K56:L57 H62:I63 E62:F63 E69:F69">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="49" priority="52">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68:F68">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67:F67">
-    <cfRule type="expression" dxfId="17" priority="10">
+    <cfRule type="expression" dxfId="47" priority="50">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:F66">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="46" priority="49">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C22">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C16">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="44" priority="47">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C10">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="43" priority="46">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C4">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="42" priority="45">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F22">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="41" priority="44">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F16">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="40" priority="43">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:F10">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="39" priority="42">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F4">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="38" priority="41">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E28">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E40">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H40">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:K28">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K40">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N28">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29:N40">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:Q28">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29:Q40">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T28">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T29:T40">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25:W28">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29:W40">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:I22">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:I16">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:I10">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I4">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:L22">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:L16">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:L10">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:L4">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:O22">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:O16">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:O10">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:O4">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19:R22">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:R16">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:R10">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:R4">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19:U22">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:U16">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:U10">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:U4">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19:X22">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13:X16">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7:X10">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:X4">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8779,12 +10855,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
